--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf9-Tgfbr1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H2">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J2">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N2">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O2">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P2">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q2">
-        <v>57.57509155777511</v>
+        <v>0.3531140651243332</v>
       </c>
       <c r="R2">
-        <v>518.1758240199761</v>
+        <v>3.178026586119</v>
       </c>
       <c r="S2">
-        <v>0.1517002172930197</v>
+        <v>0.005369642307954697</v>
       </c>
       <c r="T2">
-        <v>0.1517002172930198</v>
+        <v>0.005369642307954698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H3">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J3">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P3">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q3">
-        <v>20.15594352203111</v>
+        <v>1.437601335784444</v>
       </c>
       <c r="R3">
-        <v>181.40349169828</v>
+        <v>12.93841202206</v>
       </c>
       <c r="S3">
-        <v>0.05310735822225605</v>
+        <v>0.02186093876459522</v>
       </c>
       <c r="T3">
-        <v>0.05310735822225605</v>
+        <v>0.02186093876459522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.9029553333333333</v>
+        <v>0.06440233333333333</v>
       </c>
       <c r="H4">
-        <v>2.708866</v>
+        <v>0.193207</v>
       </c>
       <c r="I4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="J4">
-        <v>0.2353208431348719</v>
+        <v>0.03647206354366116</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N4">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P4">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q4">
-        <v>11.580762429178</v>
+        <v>0.6077308796369999</v>
       </c>
       <c r="R4">
-        <v>104.226861862602</v>
+        <v>5.469577916732999</v>
       </c>
       <c r="S4">
-        <v>0.03051326761959613</v>
+        <v>0.009241482471111241</v>
       </c>
       <c r="T4">
-        <v>0.03051326761959613</v>
+        <v>0.009241482471111241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.340694</v>
       </c>
       <c r="I5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J5">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N5">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O5">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P5">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q5">
-        <v>92.25847807690934</v>
+        <v>7.933253473221999</v>
       </c>
       <c r="R5">
-        <v>830.3263026921841</v>
+        <v>71.39928125899799</v>
       </c>
       <c r="S5">
-        <v>0.2430848270097181</v>
+        <v>0.1206373172208311</v>
       </c>
       <c r="T5">
-        <v>0.2430848270097181</v>
+        <v>0.1206373172208311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.340694</v>
       </c>
       <c r="I6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J6">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P6">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q6">
         <v>32.29793688961333</v>
@@ -818,10 +818,10 @@
         <v>290.68143200652</v>
       </c>
       <c r="S6">
-        <v>0.08509937043441702</v>
+        <v>0.4911397916734172</v>
       </c>
       <c r="T6">
-        <v>0.08509937043441702</v>
+        <v>0.4911397916734171</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.340694</v>
       </c>
       <c r="I7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867156</v>
       </c>
       <c r="J7">
-        <v>0.3770787376970584</v>
+        <v>0.8194013021867155</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N7">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P7">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q7">
-        <v>18.557044162302</v>
+        <v>13.653613910754</v>
       </c>
       <c r="R7">
-        <v>167.013397460718</v>
+        <v>122.882525196786</v>
       </c>
       <c r="S7">
-        <v>0.04889454025292325</v>
+        <v>0.2076241932924674</v>
       </c>
       <c r="T7">
-        <v>0.04889454025292325</v>
+        <v>0.2076241932924673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H8">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I8">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J8">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>63.76294533333333</v>
+        <v>5.482938999999999</v>
       </c>
       <c r="N8">
-        <v>191.288836</v>
+        <v>16.448817</v>
       </c>
       <c r="O8">
-        <v>0.6446527016991613</v>
+        <v>0.1472261722051079</v>
       </c>
       <c r="P8">
-        <v>0.6446527016991614</v>
+        <v>0.147226172205108</v>
       </c>
       <c r="Q8">
-        <v>94.83277946885198</v>
+        <v>1.395400664914666</v>
       </c>
       <c r="R8">
-        <v>853.4950152196679</v>
+        <v>12.558605984232</v>
       </c>
       <c r="S8">
-        <v>0.2498676573964235</v>
+        <v>0.02121921267632218</v>
       </c>
       <c r="T8">
-        <v>0.2498676573964236</v>
+        <v>0.02121921267632218</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H9">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I9">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J9">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>66.96657999999999</v>
       </c>
       <c r="O9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="P9">
-        <v>0.2256806388876402</v>
+        <v>0.5993885906243068</v>
       </c>
       <c r="Q9">
-        <v>33.19915080105999</v>
+        <v>5.680968440408888</v>
       </c>
       <c r="R9">
-        <v>298.7923572095399</v>
+        <v>51.12871596367999</v>
       </c>
       <c r="S9">
-        <v>0.08747391023096709</v>
+        <v>0.08638786018629446</v>
       </c>
       <c r="T9">
-        <v>0.08747391023096711</v>
+        <v>0.08638786018629446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.487271</v>
+        <v>0.2544986666666667</v>
       </c>
       <c r="H10">
-        <v>4.461812999999999</v>
+        <v>0.763496</v>
       </c>
       <c r="I10">
-        <v>0.3876004191680696</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="J10">
-        <v>0.3876004191680697</v>
+        <v>0.1441266342696234</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.825399</v>
+        <v>9.436472999999999</v>
       </c>
       <c r="N10">
-        <v>38.476197</v>
+        <v>28.309419</v>
       </c>
       <c r="O10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="P10">
-        <v>0.1296666594131984</v>
+        <v>0.2533852371705853</v>
       </c>
       <c r="Q10">
-        <v>19.074843996129</v>
+        <v>2.401569796536</v>
       </c>
       <c r="R10">
-        <v>171.673595965161</v>
+        <v>21.614128168824</v>
       </c>
       <c r="S10">
-        <v>0.05025885154067903</v>
+        <v>0.03651956140700672</v>
       </c>
       <c r="T10">
-        <v>0.05025885154067904</v>
+        <v>0.03651956140700672</v>
       </c>
     </row>
   </sheetData>
